--- a/Time log.xlsx
+++ b/Time log.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\10429\OneDrive\文档\University\CIS598\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\10429\Documents\University\598\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{835E323A-CF75-4241-9E93-B15F8C49D063}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91DFAF19-0D65-4947-A494-F366B34F15FB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17220" yWindow="945" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -64,6 +64,42 @@
   </si>
   <si>
     <t>establish Repo&amp;time log, consider topic and faculty advisor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2/6/2020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Research</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2/10/2020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Make slides, prepare for 1st presentation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2/16/2020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Try google Speech API</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2/17/2020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Meet with Dr.Hsu, this will be the regular meeting time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Update detail information, main task become using Keras to build model, maybe Amazon Lightsail in the future. 1st task: Play with Keras locally &amp; Do research about AWS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -71,7 +107,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,9 +143,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -390,19 +427,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="6" max="6" width="18.25" customWidth="1"/>
     <col min="7" max="7" width="33.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -425,7 +462,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -443,6 +480,106 @@
       </c>
       <c r="G2" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="E3">
+        <v>30</v>
+      </c>
+      <c r="F3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="E4">
+        <v>60</v>
+      </c>
+      <c r="F4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="E5">
+        <v>60</v>
+      </c>
+      <c r="F5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="E6">
+        <v>20</v>
+      </c>
+      <c r="F6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.73611111111111116</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.76388888888888884</v>
+      </c>
+      <c r="E7">
+        <v>40</v>
+      </c>
+      <c r="F7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
